--- a/spreadsheet/macrofree/azureopenai_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azureopenai_sg_checklist.ko.xlsx
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>프로비저닝 관리 사용률을 모니터링하여 100%를 초과하지 않도록 하여 배포된 모델에 대한 호출 제한을 방지하는 것이 중요합니다.</t>
+          <t>배포된 모델에 대한 호출 제한을 방지하기 위해 프로비저닝 관리 사용률을 모니터링하여 100%를 초과하지 않도록 하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>콘텐츠 필터 조정: 콘텐츠 필터를 조정하여 과도하게 공격적인 필터로 인한 오탐을 최소화합니다.</t>
+          <t>콘텐츠 필터 조정: 콘텐츠 필터를 조정하여 지나치게 공격적인 필터로 인한 오탐을 최소화합니다.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>콘텐츠 필터는 불투명한 위험 분석을 기반으로 프롬프트 또는 완료를 차단합니다. 워크로드에 대한 예상 사용량을 허용하도록 콘텐츠 필터가 조정되었는지 확인합니다.</t>
+          <t>콘텐츠 필터는 불투명한 위험 분석을 기반으로 프롬프트 또는 완료를 차단합니다. 워크로드에 대한 예상 사용량을 허용하도록 콘텐츠 필터가 조정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1197,7 +1197,7 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>액세스 제한: 워크로드에 필요한 경우가 아니면 Azure OpenAI에 대한 공용 액세스를 사용하지 않도록 설정합니다. Azure 가상 네트워크의 소비자에서 연결하는 경우 프라이빗 엔드포인트를 만듭니다.</t>
+          <t>액세스 제한: 워크로드에 필요한 경우가 아니면 Azure OpenAI에 대한 공용 액세스를 사용하지 않도록 설정합니다. Azure 가상 네트워크의 소비자로부터 연결하는 경우 프라이빗 엔드포인트를 만듭니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID: Microsoft Entra ID를 사용하여 인증하고 RBAC(역할 기반 액세스 제어)를 사용하여 Azure OpenAI에 대한 액세스 권한을 부여합니다. Azure AI Services에서 로컬 인증을 사용하지 않도록 설정하고 'disableLocalAuth'를 'true'로 설정합니다. 완성 또는 이미지 생성을 수행하는 ID에 Cognitive Services OpenAI 사용자 역할을 부여합니다. 모델 자동화 파이프라인 및 임시 데이터 과학 액세스 권한에 Cognitive Services OpenAI Contributor와 같은 역할을 부여합니다.</t>
+          <t>Microsoft Entra ID: RBAC(역할 기반 액세스 제어)를 사용하여 Azure OpenAI에 대한 액세스 권한을 부여하고 인증에 Microsoft Entra ID를 사용합니다. Azure AI Services에서 로컬 인증을 사용하지 않도록 설정하고 'disableLocalAuth'를 'true'로 설정합니다. 완성 또는 이미지 생성을 수행하는 ID에 Cognitive Services OpenAI 사용자 역할을 부여합니다. 모델 자동화 파이프라인 및 임시 데이터 과학 액세스 권한에 Cognitive Services OpenAI 기여자와 같은 역할을 부여합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID를 사용하면 ID 관리 구성 요소가 중앙 집중화되고 API 키를 사용할 필요가 없습니다. Microsoft Entra ID와 함께 RBAC를 사용하면 사용자 또는 그룹이 작업을 수행하는 데 필요한 권한을 정확히 가질 수 있습니다. 이러한 종류의 세분화된 액세스 제어는 Azure OpenAI API 키로는 불가능합니다.</t>
+          <t>Microsoft Entra ID를 사용하면 ID 관리 구성 요소가 중앙 집중화되고 API 키를 사용할 필요가 없습니다. Microsoft Entra ID와 함께 RBAC를 사용하면 사용자 또는 그룹이 작업을 수행하는 데 필요한 권한을 정확히 가질 수 있습니다. 이러한 종류의 세분화된 액세스 제어는 Azure OpenAI API 키에서는 불가능합니다.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>고객 관리형 키를 사용하면 액세스 제어를 만들고, 회전하고, 사용하지 않도록 설정하고, 취소할 수 있는 더 큰 유연성을 얻을 수 있습니다.</t>
+          <t>고객 관리형 키를 사용하면 액세스 제어를 만들고, 회전하고, 사용하지 않도록 설정하고, 취소할 수 있는 유연성이 향상됩니다.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1333,7 +1333,7 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>제한을 설정하도록 클라이언트 코드 설계: 사용자 지정 클라이언트는 모델당 토큰 수에 대한 최대 제한('max_tokens') 또는 생성 완료 수('n')와 같은 Azure OpenAI 완성 API의 제한 기능을 사용해야 합니다. 제한을 설정하면 서버가 클라이언트가 필요로 하는 것보다 더 많이 생성하지 않도록 합니다.</t>
+          <t>제한을 설정하도록 클라이언트 코드 디자인: 사용자 지정 클라이언트는 모델당 토큰 수에 대한 최대 제한('max_tokens') 또는 생성까지의 완료 수('n')와 같은 Azure OpenAI 완성 API의 제한 기능을 사용해야 합니다. 제한을 설정하면 서버가 클라이언트에 필요한 것보다 더 많이 생성되지 않습니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>프로비저닝된 처리량 사용량 모니터링: 프로비저닝된 처리량을 사용하는 경우 프로비저닝 관리 사용률을 모니터링하여 구매한 프로비저닝된 처리량을 과소 활용하고 있지 않은지 확인합니다.</t>
+          <t>프로비저닝된 처리량 사용량 모니터링: 프로비저닝된 처리량을 사용하는 경우 프로비저닝 관리 사용률을 모니터링하여 구매한 프로비저닝된 처리량을 충분히 활용하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>프로비저닝 관리 사용률을 지속적으로 모니터링하면 프로비저닝된 처리량을 충분히 활용하지 못하고 있는지 파악하는 데 필요한 정보를 얻을 수 있습니다.</t>
+          <t>프로비저닝 관리 사용률을 지속적으로 모니터링하면 프로비저닝된 처리량을 충분히 활용하지 못하고 있는지 파악해야 하는 정보를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>비용 모니터링, 예산 설정 및 경고 설정은 적절한 책임 프로세스를 통해 거버넌스를 제공합니다.</t>
+          <t>비용 모니터링, 예산 설정 및 경고 설정은 거버넌스에 적절한 책임 프로세스를 제공합니다.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>진단은 메트릭 및 로그를 수집하고 분석하여 Azure OpenAI의 가용성, 성능 및 작업을 모니터링하는 데 도움이 됩니다.</t>
+          <t>진단은 메트릭과 로그를 수집하고 분석하여 Azure OpenAI의 가용성, 성능 및 작업을 모니터링하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>

--- a/spreadsheet/macrofree/azureopenai_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azureopenai_sg_checklist.ko.xlsx
@@ -1061,7 +1061,7 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>종량제에 대한 속도 제한 모니터링: 종량제 방식을 사용하는 경우 모델 배포에 대한 속도 제한을 관리하고 TPM(분당 토큰) 및 RPM(분당 요청 수)의 사용량을 모니터링합니다.</t>
+          <t>종량제에 대한 속도 제한 모니터링: 종량제 접근 방식을 사용하는 경우 모델 배포에 대한 속도 제한을 관리하고 TPM(분당 토큰) 및 RPM(분당 요청 수)의 사용량을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>배포된 모델에 대한 호출 제한을 방지하기 위해 프로비저닝 관리 사용률을 모니터링하여 100%를 초과하지 않도록 하는 것이 중요합니다.</t>
+          <t>프로비저닝 관리 사용률을 모니터링하여 100%를 초과하지 않도록 하여 배포된 모델에 대한 호출 제한을 방지하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>콘텐츠 필터 조정: 콘텐츠 필터를 조정하여 지나치게 공격적인 필터로 인한 오탐을 최소화합니다.</t>
+          <t>콘텐츠 필터 조정: 콘텐츠 필터를 조정하여 과도하게 공격적인 필터로 인한 오탐을 최소화합니다.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Key Vault에 저장하여 코드에서 비밀을 분리하면 비밀이 유출될 가능성이 줄어듭니다. 또한 분리는 비밀의 중앙 관리를 용이하게 하여 키 회전과 같은 책임을 완화합니다.</t>
+          <t>비밀을 Key Vault에 저장하여 코드에서 분리하면 비밀이 유출될 가능성이 줄어듭니다. 또한 분리는 비밀의 중앙 관리를 용이하게 하여 키 회전과 같은 책임을 완화합니다.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID를 사용하면 ID 관리 구성 요소가 중앙 집중화되고 API 키를 사용할 필요가 없습니다. Microsoft Entra ID와 함께 RBAC를 사용하면 사용자 또는 그룹이 작업을 수행하는 데 필요한 권한을 정확히 가질 수 있습니다. 이러한 종류의 세분화된 액세스 제어는 Azure OpenAI API 키에서는 불가능합니다.</t>
+          <t>Microsoft Entra ID를 사용하면 ID 관리 구성 요소가 중앙 집중화되고 API 키를 사용할 필요가 없습니다. Microsoft Entra ID와 함께 RBAC를 사용하면 사용자 또는 그룹이 작업을 수행하는 데 필요한 권한을 정확하게 가질 수 있습니다. 이러한 종류의 세분화된 액세스 제어는 Azure OpenAI API 키에서는 사용할 수 없습니다.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1333,7 +1333,7 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>제한을 설정하도록 클라이언트 코드 디자인: 사용자 지정 클라이언트는 모델당 토큰 수에 대한 최대 제한('max_tokens') 또는 생성까지의 완료 수('n')와 같은 Azure OpenAI 완성 API의 제한 기능을 사용해야 합니다. 제한을 설정하면 서버가 클라이언트에 필요한 것보다 더 많이 생성되지 않습니다.</t>
+          <t>제한을 설정하도록 클라이언트 코드 설계: 사용자 지정 클라이언트는 모델당 토큰 수에 대한 최대 제한('max_tokens') 또는 생성 완료 수('n')와 같은 Azure OpenAI 완성 API의 제한 기능을 사용해야 합니다. 제한을 설정하면 서버가 클라이언트에 필요한 것보다 더 많이 생성되지 않습니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>진단은 메트릭과 로그를 수집하고 분석하여 Azure OpenAI의 가용성, 성능 및 작업을 모니터링하는 데 도움이 됩니다.</t>
+          <t>진단은 메트릭 및 로그를 수집하고 분석하여 Azure OpenAI의 가용성, 성능 및 작업을 모니터링하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
